--- a/data/reference_values.xlsx
+++ b/data/reference_values.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/philipp/Documents/GitHub/hRELSA_application/hRELSA_publication/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/philipp/Documents/GitHub/hRELSA_application/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C0BF70-0F3C-E546-84C8-683039820F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE0F738-508F-844C-8F06-E5FAAB5E1747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="800" windowWidth="28240" windowHeight="16680" xr2:uid="{A153B49F-2A1E-2B41-9320-8DF869EDFB5B}"/>
   </bookViews>
@@ -414,7 +414,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/reference_values.xlsx
+++ b/data/reference_values.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/philipp/Documents/GitHub/hRELSA_application/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE0F738-508F-844C-8F06-E5FAAB5E1747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{945ED832-A1C6-BF48-95F0-403B7A4245D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="800" windowWidth="28240" windowHeight="16680" xr2:uid="{A153B49F-2A1E-2B41-9320-8DF869EDFB5B}"/>
+    <workbookView xWindow="1380" yWindow="4620" windowWidth="28240" windowHeight="16680" xr2:uid="{A153B49F-2A1E-2B41-9320-8DF869EDFB5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -414,7 +414,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
